--- a/p5/数据通路与控制信号.xlsx
+++ b/p5/数据通路与控制信号.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6B477F-4D02-47E3-AB1E-A0DAFBAC5BEE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB9A00-FD51-446D-ABD5-2101E356CEBE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="143">
   <si>
     <t>部件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,22 @@
   </si>
   <si>
     <t>接受转发(指出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X即为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,6 +683,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -957,13 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1019,7 +1038,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1063,8 +1082,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1105,8 +1124,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1145,8 +1164,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
@@ -1188,8 +1207,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1231,8 +1250,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1274,10 +1293,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1321,8 +1340,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1364,10 +1383,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1411,8 +1430,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,8 +1453,8 @@
       <c r="K11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>66</v>
+      <c r="L11" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>60</v>
@@ -1454,7 +1473,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1499,8 +1518,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1544,8 +1563,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1587,8 +1606,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1630,10 +1649,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1677,8 +1696,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1700,8 +1719,8 @@
       <c r="K17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>66</v>
+      <c r="L17" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>55</v>
@@ -1720,8 +1739,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1763,8 +1782,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1806,8 +1825,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1849,10 +1868,10 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1896,8 +1915,8 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1939,8 +1958,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1982,10 +2001,10 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2029,8 +2048,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
         <v>36</v>
       </c>
@@ -2052,8 +2071,8 @@
       <c r="K25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>66</v>
+      <c r="L25" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>80</v>
@@ -2072,8 +2091,8 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
@@ -2115,10 +2134,10 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2162,8 +2181,8 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
@@ -2205,8 +2224,8 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2249,236 +2268,273 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="1" t="s">
+    <row r="30" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
+      <c r="M31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P31" s="2" t="s">
+      <c r="M32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="1" t="s">
+      <c r="Q32" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P32" s="2" t="s">
+      <c r="M33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
+      <c r="Q33" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P33" s="2" t="s">
+      <c r="M34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="1" t="s">
+      <c r="Q34" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P34" s="2" t="s">
+      <c r="M35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q34" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="Q35" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
+      <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O37" s="2"/>
@@ -2487,25 +2543,35 @@
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A27:A31"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B3:B7"/>
@@ -2519,13 +2585,6 @@
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2535,13 +2594,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F157E-2820-44DD-84F9-05CBA3E9E49C}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3077,6 +3136,11 @@
       </c>
       <c r="L14" s="5" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +3161,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3274,7 +3338,7 @@
         <v>131</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>

--- a/p5/数据通路与控制信号.xlsx
+++ b/p5/数据通路与控制信号.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB9A00-FD51-446D-ABD5-2101E356CEBE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081CDEB9-5FF5-4AAB-8296-CFEC90109D4E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="145">
   <si>
     <t>部件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,14 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +987,10 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2600,7 +2608,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3158,10 +3166,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3214,8 +3222,8 @@
       <c r="C2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>129</v>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>129</v>
@@ -3252,8 +3260,8 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
+      <c r="D3" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -3290,8 +3298,8 @@
       <c r="C4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3328,8 +3336,8 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>131</v>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>131</v>
